--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/Extremadura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709CBF1-1C08-7D4D-B8B1-97B402F5B1D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1A81D-9A54-2041-9668-B9A778331257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -539,23 +539,23 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G2" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -566,23 +566,23 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>3</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -593,20 +593,20 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1">
         <v>27</v>
@@ -623,20 +623,20 @@
         <v>19</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -647,23 +647,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="G6" s="6">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H6" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -674,23 +674,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -701,23 +701,23 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -728,28 +728,28 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -765,27 +765,27 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:H11" si="1">SUM(C2:C9)</f>
-        <v>1231</v>
+        <v>1394</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1129</v>
+        <v>1257</v>
       </c>
       <c r="G11" s="6">
-        <f>H14</f>
-        <v>0</v>
+        <f>SUM(G2:G9)</f>
+        <v>312</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1A81D-9A54-2041-9668-B9A778331257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A5A61D-B6E8-6A46-9F41-580D18F29425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A5A61D-B6E8-6A46-9F41-580D18F29425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674ACF58-9F76-CF41-8025-AD1C94BD71C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,16 +496,16 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -539,26 +539,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D2" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G2" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -566,26 +566,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -593,26 +593,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G4" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -620,26 +620,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -647,26 +647,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="G6" s="6">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -684,16 +684,16 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -701,26 +701,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -728,26 +728,26 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G9" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -758,34 +758,34 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:H11" si="1">SUM(C2:C9)</f>
-        <v>1394</v>
+        <v>1456</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1257</v>
+        <v>1305</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G2:G9)</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674ACF58-9F76-CF41-8025-AD1C94BD71C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D658FD5-1AEB-8C4F-82E5-0635A99679D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,16 +496,16 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -539,26 +539,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="D2" s="3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="G2" s="6">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -566,26 +566,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -593,26 +593,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G4" s="6">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -620,26 +620,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -647,26 +647,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="D6" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="G6" s="6">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="H6" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -674,26 +674,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -701,26 +701,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="G8" s="6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -728,26 +728,26 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G9" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -758,34 +758,34 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:H11" si="1">SUM(C2:C9)</f>
-        <v>1456</v>
+        <v>1837</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1305</v>
+        <v>1553</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G2:G9)</f>
-        <v>313</v>
+        <v>412</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D658FD5-1AEB-8C4F-82E5-0635A99679D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF600A7-6D6A-8A4A-B65E-0CCBE8B15081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="11540" yWindow="460" windowWidth="17260" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -539,23 +539,23 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="G2" s="6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -566,23 +566,23 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -593,23 +593,23 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -620,20 +620,20 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
@@ -647,23 +647,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>841</v>
+        <v>976</v>
       </c>
       <c r="D6" s="3">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="G6" s="6">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H6" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -674,23 +674,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="G7" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -701,23 +701,23 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -728,23 +728,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G9" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -765,27 +765,27 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:H11" si="1">SUM(C2:C9)</f>
-        <v>1837</v>
+        <v>2116</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1553</v>
+        <v>1576</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G2:G9)</f>
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF600A7-6D6A-8A4A-B65E-0CCBE8B15081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6930FDD9-3CFE-794C-872B-2901DCCCEEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="460" windowWidth="17260" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +164,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -179,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B516353E-A5AF-6C44-A915-5D006727C4F7}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -531,7 +543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -539,26 +551,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G2" s="6">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -566,26 +578,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G3" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -593,26 +605,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G4" s="6">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -620,26 +632,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -647,26 +659,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>976</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="3">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="G6" s="6">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H6" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -674,26 +686,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="G7" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -701,26 +713,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D8" s="3">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G8" s="6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -728,26 +740,26 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="G9" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -758,35 +770,37 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:H11" si="1">SUM(C2:C9)</f>
-        <v>2116</v>
+        <f>SUM(C2:C9)</f>
+        <v>2273</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>282</v>
+        <f t="shared" ref="D11:F11" si="1">SUM(D2:D9)</f>
+        <v>381</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1576</v>
+        <v>1609</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G2:G9)</f>
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6930FDD9-3CFE-794C-872B-2901DCCCEEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BDFCD7-6BE1-0F4C-92F3-D45FCF5161F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,16 +508,16 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -543,7 +543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -551,26 +551,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D2" s="3">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E2" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5">
         <f>C2-D2-E2</f>
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G2" s="6">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -578,26 +578,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="D3" s="3">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="G3" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -605,26 +605,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -635,23 +635,23 @@
         <v>40</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -659,26 +659,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1055</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="3">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>782</v>
+        <v>883</v>
       </c>
       <c r="G6" s="6">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -686,26 +686,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G7" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -713,26 +713,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="G8" s="6">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -740,26 +740,26 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="G9" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -770,36 +770,36 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C9)</f>
-        <v>2273</v>
+        <v>2658</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ref="D11:F11" si="1">SUM(D2:D9)</f>
-        <v>381</v>
+        <v>511</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1609</v>
+        <v>1826</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G2:G9)</f>
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="H11" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="H12" s="10"/>
     </row>
   </sheetData>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BDFCD7-6BE1-0F4C-92F3-D45FCF5161F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F86FC-AB4A-3C49-8BDB-21D1CF05DB75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,18 +112,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -137,6 +125,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,12 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,299 +508,299 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>409</v>
-      </c>
-      <c r="D2" s="3">
-        <v>143</v>
-      </c>
-      <c r="E2" s="4">
+        <v>417</v>
+      </c>
+      <c r="D2" s="9">
+        <v>171</v>
+      </c>
+      <c r="E2" s="10">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2-D2-E2</f>
+        <v>220</v>
+      </c>
+      <c r="G2" s="4">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>252</v>
+      </c>
+      <c r="D3" s="9">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
+        <v>164</v>
+      </c>
+      <c r="G3" s="4">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>193</v>
+      </c>
+      <c r="D4" s="9">
+        <v>74</v>
+      </c>
+      <c r="E4" s="10">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="G4" s="4">
         <v>23</v>
       </c>
-      <c r="F2" s="5">
-        <f>C2-D2-E2</f>
-        <v>243</v>
-      </c>
-      <c r="G2" s="6">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>249</v>
-      </c>
-      <c r="D3" s="3">
-        <v>59</v>
-      </c>
-      <c r="E3" s="4">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>173</v>
-      </c>
-      <c r="G3" s="6">
-        <v>42</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>184</v>
-      </c>
-      <c r="D4" s="3">
-        <v>66</v>
-      </c>
-      <c r="E4" s="4">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G4" s="6">
-        <v>27</v>
-      </c>
       <c r="H4" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
       </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="9">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G5" s="6">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="3">
-        <v>152</v>
-      </c>
-      <c r="E6" s="4">
-        <v>165</v>
-      </c>
-      <c r="F6" s="5">
+        <v>1262</v>
+      </c>
+      <c r="D6" s="9">
+        <v>184</v>
+      </c>
+      <c r="E6" s="10">
+        <v>174</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>883</v>
-      </c>
-      <c r="G6" s="6">
-        <v>178</v>
+        <v>904</v>
+      </c>
+      <c r="G6" s="4">
+        <v>154</v>
       </c>
       <c r="H6" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>85</v>
+      </c>
+      <c r="D7" s="9">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>301</v>
+      </c>
+      <c r="D8" s="9">
+        <v>65</v>
+      </c>
+      <c r="E8" s="10">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="G8" s="4">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>212</v>
+      </c>
+      <c r="D9" s="9">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G7" s="6">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>293</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4">
-        <v>57</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="G8" s="6">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>204</v>
-      </c>
-      <c r="D9" s="3">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="G9" s="6">
+        <v>157</v>
+      </c>
+      <c r="G9" s="4">
         <v>30</v>
       </c>
       <c r="H9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C9)</f>
-        <v>2658</v>
-      </c>
-      <c r="D11" s="3">
+        <v>2762</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" ref="D11:F11" si="1">SUM(D2:D9)</f>
-        <v>511</v>
-      </c>
-      <c r="E11" s="4">
+        <v>615</v>
+      </c>
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="F11" s="5">
+        <v>342</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>1826</v>
-      </c>
-      <c r="G11" s="6">
+        <v>1805</v>
+      </c>
+      <c r="G11" s="4">
         <f>SUM(G2:G9)</f>
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="H11" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="H12" s="10"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Areas_salud.xlsx
+++ b/Areas_salud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F86FC-AB4A-3C49-8BDB-21D1CF05DB75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFCE0C-820B-0D41-B59E-5696C3B6E362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{8D5962D6-3F8F-0F4F-BB97-4C14EAB963CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,22 +164,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -188,7 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -505,19 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B516353E-A5AF-6C44-A915-5D006727C4F7}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -527,10 +515,10 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -543,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -551,26 +539,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>417</v>
-      </c>
-      <c r="D2" s="9">
-        <v>171</v>
-      </c>
-      <c r="E2" s="10">
-        <v>26</v>
+        <v>443</v>
+      </c>
+      <c r="D2" s="8">
+        <v>249</v>
+      </c>
+      <c r="E2" s="9">
+        <v>33</v>
       </c>
       <c r="F2" s="3">
         <f>C2-D2-E2</f>
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="G2" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -578,26 +566,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>252</v>
-      </c>
-      <c r="D3" s="9">
-        <v>70</v>
-      </c>
-      <c r="E3" s="10">
-        <v>18</v>
+        <v>299</v>
+      </c>
+      <c r="D3" s="8">
+        <v>116</v>
+      </c>
+      <c r="E3" s="9">
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F9" si="0">C3-D3-E3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G3" s="4">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -605,26 +593,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>193</v>
-      </c>
-      <c r="D4" s="9">
-        <v>74</v>
-      </c>
-      <c r="E4" s="10">
-        <v>13</v>
+        <v>244</v>
+      </c>
+      <c r="D4" s="8">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9">
+        <v>19</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G4" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -632,26 +620,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
         <v>5</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -659,26 +647,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1262</v>
-      </c>
-      <c r="D6" s="9">
-        <v>184</v>
-      </c>
-      <c r="E6" s="10">
-        <v>174</v>
+        <v>1503</v>
+      </c>
+      <c r="D6" s="8">
+        <v>289</v>
+      </c>
+      <c r="E6" s="9">
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>904</v>
+        <v>1008</v>
       </c>
       <c r="G6" s="4">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H6" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -686,26 +674,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>85</v>
-      </c>
-      <c r="D7" s="9">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -713,26 +701,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>301</v>
-      </c>
-      <c r="D8" s="9">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10">
-        <v>59</v>
+        <v>423</v>
+      </c>
+      <c r="D8" s="8">
+        <v>156</v>
+      </c>
+      <c r="E8" s="9">
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -740,26 +728,26 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>212</v>
-      </c>
-      <c r="D9" s="9">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10">
-        <v>33</v>
+        <v>242</v>
+      </c>
+      <c r="D9" s="8">
+        <v>73</v>
+      </c>
+      <c r="E9" s="9">
+        <v>38</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G9" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -770,37 +758,35 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C9)</f>
-        <v>2762</v>
-      </c>
-      <c r="D11" s="9">
+        <v>3316</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" ref="D11:F11" si="1">SUM(D2:D9)</f>
-        <v>615</v>
-      </c>
-      <c r="E11" s="10">
+        <v>1051</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>1805</v>
+        <v>1861</v>
       </c>
       <c r="G11" s="4">
         <f>SUM(G2:G9)</f>
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="H11" s="1">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H12" s="8"/>
+        <f>SUM(H2:H9)</f>
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
